--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H2">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I2">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J2">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N2">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O2">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P2">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q2">
-        <v>13.70170765102211</v>
+        <v>44.78252335110578</v>
       </c>
       <c r="R2">
-        <v>123.315368859199</v>
+        <v>403.042710159952</v>
       </c>
       <c r="S2">
-        <v>0.05149763419785163</v>
+        <v>0.194161559569014</v>
       </c>
       <c r="T2">
-        <v>0.05149763419785163</v>
+        <v>0.194161559569014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H3">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I3">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J3">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.648451</v>
       </c>
       <c r="O3">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P3">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q3">
-        <v>20.33551743734745</v>
+        <v>66.98137384841456</v>
       </c>
       <c r="R3">
-        <v>183.019656936127</v>
+        <v>602.8323646357311</v>
       </c>
       <c r="S3">
-        <v>0.07643069498234632</v>
+        <v>0.2904081109168274</v>
       </c>
       <c r="T3">
-        <v>0.07643069498234632</v>
+        <v>0.2904081109168274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H4">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I4">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J4">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N4">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O4">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P4">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q4">
-        <v>14.37633129742822</v>
+        <v>49.64621346549667</v>
       </c>
       <c r="R4">
-        <v>129.386981676854</v>
+        <v>446.81592118947</v>
       </c>
       <c r="S4">
-        <v>0.05403319565111698</v>
+        <v>0.2152488406600473</v>
       </c>
       <c r="T4">
-        <v>0.05403319565111699</v>
+        <v>0.2152488406600473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H5">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I5">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J5">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N5">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O5">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P5">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q5">
-        <v>3.589428225837667</v>
+        <v>13.49247751742067</v>
       </c>
       <c r="R5">
-        <v>32.30485403253901</v>
+        <v>121.432297656786</v>
       </c>
       <c r="S5">
-        <v>0.01349080468373901</v>
+        <v>0.05849872408245097</v>
       </c>
       <c r="T5">
-        <v>0.01349080468373901</v>
+        <v>0.05849872408245097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H6">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I6">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J6">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.03541933333333</v>
+        <v>10.21772833333333</v>
       </c>
       <c r="N6">
-        <v>48.106258</v>
+        <v>30.653185</v>
       </c>
       <c r="O6">
-        <v>0.228130995884431</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="P6">
-        <v>0.2281309958844309</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="Q6">
-        <v>15.36982649278511</v>
+        <v>32.25832540888722</v>
       </c>
       <c r="R6">
-        <v>138.328438435066</v>
+        <v>290.324928679985</v>
       </c>
       <c r="S6">
-        <v>0.05776723037517532</v>
+        <v>0.1398609614149766</v>
       </c>
       <c r="T6">
-        <v>0.05776723037517531</v>
+        <v>0.1398609614149766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H7">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I7">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J7">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N7">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O7">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P7">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q7">
-        <v>40.40828154950334</v>
+        <v>5.076762388035555</v>
       </c>
       <c r="R7">
-        <v>363.67453394553</v>
+        <v>45.69086149232</v>
       </c>
       <c r="S7">
-        <v>0.1518738360794676</v>
+        <v>0.02201108890390286</v>
       </c>
       <c r="T7">
-        <v>0.1518738360794676</v>
+        <v>0.02201108890390286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H8">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I8">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J8">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>63.648451</v>
       </c>
       <c r="O8">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P8">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q8">
-        <v>59.97232863174334</v>
+        <v>7.593330924801111</v>
       </c>
       <c r="R8">
-        <v>539.7509576856901</v>
+        <v>68.33997832321</v>
       </c>
       <c r="S8">
-        <v>0.2254049729079187</v>
+        <v>0.03292206120507951</v>
       </c>
       <c r="T8">
-        <v>0.2254049729079187</v>
+        <v>0.03292206120507951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H9">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I9">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J9">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N9">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O9">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P9">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q9">
-        <v>42.39784248148666</v>
+        <v>5.628133708633333</v>
       </c>
       <c r="R9">
-        <v>381.58058233338</v>
+        <v>50.6532033777</v>
       </c>
       <c r="S9">
-        <v>0.1593515668630442</v>
+        <v>0.02440164458272322</v>
       </c>
       <c r="T9">
-        <v>0.1593515668630442</v>
+        <v>0.02440164458272322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H10">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I10">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J10">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N10">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O10">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P10">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q10">
-        <v>10.58573354837</v>
+        <v>1.529572191473333</v>
       </c>
       <c r="R10">
-        <v>95.27160193533001</v>
+        <v>13.76614972326</v>
       </c>
       <c r="S10">
-        <v>0.03978629875008449</v>
+        <v>0.006631696919832535</v>
       </c>
       <c r="T10">
-        <v>0.03978629875008449</v>
+        <v>0.006631696919832537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H11">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I11">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J11">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.03541933333333</v>
+        <v>10.21772833333333</v>
       </c>
       <c r="N11">
-        <v>48.106258</v>
+        <v>30.653185</v>
       </c>
       <c r="O11">
-        <v>0.228130995884431</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="P11">
-        <v>0.2281309958844309</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="Q11">
-        <v>45.32780089211333</v>
+        <v>3.656959029594444</v>
       </c>
       <c r="R11">
-        <v>407.95020802902</v>
+        <v>32.91263126635</v>
       </c>
       <c r="S11">
-        <v>0.1703637655092557</v>
+        <v>0.01585531174514561</v>
       </c>
       <c r="T11">
-        <v>0.1703637655092556</v>
+        <v>0.01585531174514562</v>
       </c>
     </row>
   </sheetData>
